--- a/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 10 runs per p_header value) [30-01-2017].xlsx
+++ b/benchmark/experiments/adding_headers_to_samples (soccer, rf@charfreq model, 10 runs per p_header value) [30-01-2017].xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27715"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -176,7 +176,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -809,11 +809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-307203472"/>
-        <c:axId val="-307175392"/>
+        <c:axId val="1134153312"/>
+        <c:axId val="1128885456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-307203472"/>
+        <c:axId val="1134153312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -869,12 +869,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-307175392"/>
+        <c:crossAx val="1128885456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-307175392"/>
+        <c:axId val="1128885456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -930,7 +930,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-307203472"/>
+        <c:crossAx val="1134153312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1014,7 +1014,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1647,11 +1647,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-399333008"/>
-        <c:axId val="-287884656"/>
+        <c:axId val="1132346832"/>
+        <c:axId val="1127750880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-399333008"/>
+        <c:axId val="1132346832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1707,12 +1707,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-287884656"/>
+        <c:crossAx val="1127750880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-287884656"/>
+        <c:axId val="1127750880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1768,7 +1768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-399333008"/>
+        <c:crossAx val="1132346832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1852,7 +1852,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="en-AU"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2485,11 +2485,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-305288960"/>
-        <c:axId val="-258843520"/>
+        <c:axId val="1132107184"/>
+        <c:axId val="1112740176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-305288960"/>
+        <c:axId val="1132107184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2545,12 +2545,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-258843520"/>
+        <c:crossAx val="1112740176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-258843520"/>
+        <c:axId val="1112740176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2606,7 +2606,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-305288960"/>
+        <c:crossAx val="1132107184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
